--- a/info/info.xlsx
+++ b/info/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="148">
   <si>
     <t xml:space="preserve">Feature</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">volume (voxel counting)</t>
   </si>
   <si>
+    <t xml:space="preserve">SHAPE_Volume(vx)</t>
+  </si>
+  <si>
     <t xml:space="preserve">original_shape_VoxelVolume</t>
   </si>
   <si>
@@ -139,7 +142,7 @@
     <t xml:space="preserve">Standard deviation</t>
   </si>
   <si>
-    <t xml:space="preserve">Not defined</t>
+    <t xml:space="preserve">Std</t>
   </si>
   <si>
     <t xml:space="preserve">CONVENTIONAL_std</t>
@@ -169,15 +172,15 @@
     <t xml:space="preserve">DEN EINAI PROTINOMENO</t>
   </si>
   <si>
+    <t xml:space="preserve">Kurtosis</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONVENTIONAL_Kurtosis</t>
   </si>
   <si>
     <t xml:space="preserve">original_firstorder_Kurtosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Kurtosis</t>
-  </si>
-  <si>
     <t xml:space="preserve">First Order::Kurtosis</t>
   </si>
   <si>
@@ -310,6 +313,9 @@
     <t xml:space="preserve">Neighbourhood Grey Tone Difference::Busyness</t>
   </si>
   <si>
+    <t xml:space="preserve">GLRLM Short Run Emphasis</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLRLM_SRE</t>
   </si>
   <si>
@@ -322,6 +328,9 @@
     <t xml:space="preserve">Run Length::Short run emphasis Means</t>
   </si>
   <si>
+    <t xml:space="preserve">GLRLM Long Run Emphasis</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLRLM_LRE</t>
   </si>
   <si>
@@ -334,6 +343,9 @@
     <t xml:space="preserve">Run Length::Long run emphasis Means</t>
   </si>
   <si>
+    <t xml:space="preserve">GLRLM Low Gray Level Run Emphasis</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLRLM_LGRE</t>
   </si>
   <si>
@@ -343,6 +355,9 @@
     <t xml:space="preserve">Run Length::Low grey level run emphasis Means</t>
   </si>
   <si>
+    <t xml:space="preserve">GLRLM High Gray Level Run Emphasis</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLRLM_HGRE</t>
   </si>
   <si>
@@ -352,6 +367,9 @@
     <t xml:space="preserve">Run Length::High grey level run emphasis Means</t>
   </si>
   <si>
+    <t xml:space="preserve">GLRLM Short Run Low Gray Level Emphasis</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLRLM_SRLGE</t>
   </si>
   <si>
@@ -361,6 +379,9 @@
     <t xml:space="preserve">Run Length::Short run low grey level emphasis Means</t>
   </si>
   <si>
+    <t xml:space="preserve">GLRLM Short Run High Gray Level Emphasis</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLRLM_SRHGE</t>
   </si>
   <si>
@@ -370,6 +391,9 @@
     <t xml:space="preserve">Run Length::Short run high grey level emphasis Means</t>
   </si>
   <si>
+    <t xml:space="preserve">GLRLM Long Run Low Gray Level Emphasis</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLRLM_LRLGE</t>
   </si>
   <si>
@@ -379,6 +403,9 @@
     <t xml:space="preserve">Run Length::Long run low grey level emphasis Means</t>
   </si>
   <si>
+    <t xml:space="preserve">GLRLM Long Run High Gray Level Emphasis</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLRLM_LRHGE</t>
   </si>
   <si>
@@ -388,6 +415,9 @@
     <t xml:space="preserve">Run Length::Long run high grey level emphasis Means</t>
   </si>
   <si>
+    <t xml:space="preserve">GLRLM Gray Level Non Uniformity</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLRLM_GLNU</t>
   </si>
   <si>
@@ -397,6 +427,9 @@
     <t xml:space="preserve">GLevNonU</t>
   </si>
   <si>
+    <t xml:space="preserve">GLRLM Run Length Non Uniformity</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLRLM_RLNU</t>
   </si>
   <si>
@@ -409,6 +442,9 @@
     <t xml:space="preserve">Run Length::Grey level nonuniformity Means</t>
   </si>
   <si>
+    <t xml:space="preserve">GLRLM Run Percentage</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLRLM_RP</t>
   </si>
   <si>
@@ -418,16 +454,16 @@
     <t xml:space="preserve">Run Length::Run percentage Means</t>
   </si>
   <si>
-    <t xml:space="preserve">DEN BRETHIKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simantikes diafores stis times </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mallon diaforetiki monada metrisis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idia monada metrisis, kontines times</t>
+    <t xml:space="preserve">Δεν βρέθηκε</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Μεγάλη απόκλιση τιμών</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Διαφορετική μονάδα μέτρησης</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Μικρή απόκλιση τιμών</t>
   </si>
 </sst>
 </file>
@@ -437,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -461,8 +497,23 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -475,7 +526,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,19 +542,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -541,8 +586,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -554,7 +603,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,19 +611,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -641,7 +690,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -657,37 +706,37 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="71.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -698,543 +747,626 @@
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
+      <c r="F9" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>42</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="C12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="D14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="D16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="D19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>83</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>87</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="B25" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="E25" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="F25" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1" t="s">
+      <c r="F26" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="3" t="s">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="B27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="E27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="3" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3" t="s">
+      <c r="B28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3" t="s">
+      <c r="E29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="3" t="s">
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="B30" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="E30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="B31" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="B32" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="E32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="D35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/info/info.xlsx
+++ b/info/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="143">
   <si>
     <t xml:space="preserve">Feature</t>
   </si>
@@ -137,21 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">First Order Histogram::Mean Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONVENTIONAL_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">original_firstorder_MeanAbsoluteDeviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Order Numeric::Standard Deviation</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum</t>
@@ -611,11 +596,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -704,10 +689,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -740,7 +725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -780,14 +765,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -800,14 +785,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -854,7 +839,7 @@
       <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -885,10 +870,10 @@
       <c r="A10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -901,11 +886,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -914,37 +899,37 @@
       <c r="D11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="3" t="n">
-        <v>0</v>
+      <c r="E11" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>55</v>
@@ -955,10 +940,10 @@
       <c r="D14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -967,24 +952,24 @@
         <v>60</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>66</v>
@@ -995,10 +980,10 @@
       <c r="D16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1015,130 +1000,130 @@
       <c r="D17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B20" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B22" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="B24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -1152,157 +1137,157 @@
       <c r="B26" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>130</v>
+      <c r="F32" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,57 +1303,38 @@
       <c r="D34" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="4" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="4" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D35" s="4" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/info/info.xlsx
+++ b/info/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="138">
   <si>
     <t xml:space="preserve">Feature</t>
   </si>
@@ -43,18 +43,6 @@
     <t xml:space="preserve">Volume</t>
   </si>
   <si>
-    <t xml:space="preserve">Volume (mesh)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHAPE_Volume(mL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">original_shape_MeshVolume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volumetric Features::Volume (mesh based)</t>
-  </si>
-  <si>
     <t xml:space="preserve">volume (voxel counting)</t>
   </si>
   <si>
@@ -443,9 +431,6 @@
   </si>
   <si>
     <t xml:space="preserve">Μεγάλη απόκλιση τιμών</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Διαφορετική μονάδα μέτρησης</t>
   </si>
   <si>
     <t xml:space="preserve">Μικρή απόκλιση τιμών</t>
@@ -520,8 +505,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -532,8 +517,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -588,11 +573,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -692,7 +677,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -747,7 +732,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
@@ -755,7 +740,7 @@
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="n">
@@ -770,218 +755,218 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="7" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="B12" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>70</v>
@@ -994,36 +979,36 @@
       <c r="B17" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="F17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="5" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="B19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1047,86 +1032,86 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B23" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="F23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="4" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
         <v>93</v>
       </c>
+      <c r="B24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="D24" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="5" t="s">
         <v>96</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1146,7 +1131,7 @@
       <c r="E26" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1157,16 +1142,16 @@
       <c r="B27" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1177,16 +1162,16 @@
       <c r="B28" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="5" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1197,16 +1182,16 @@
       <c r="B29" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E29" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1217,16 +1202,16 @@
       <c r="B30" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E30" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1237,17 +1222,17 @@
       <c r="B31" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="3" t="n">
-        <v>0</v>
+      <c r="E31" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,83 +1242,60 @@
       <c r="B32" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>128</v>
+      <c r="F32" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="E33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="4" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="4" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/info/info.xlsx
+++ b/info/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
   <si>
     <t xml:space="preserve">Feature</t>
   </si>
@@ -142,9 +142,6 @@
     <t xml:space="preserve">First Order::Maximum</t>
   </si>
   <si>
-    <t xml:space="preserve">DEN EINAI PROTINOMENO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kurtosis</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t xml:space="preserve">GLCM correlation</t>
   </si>
   <si>
-    <t xml:space="preserve">CLCM correlation</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLCM_Correlation</t>
   </si>
   <si>
@@ -224,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve">GLCM difference average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLCM dissimilarity</t>
   </si>
   <si>
     <t xml:space="preserve">GLCM_Dissimilarity</t>
@@ -443,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -475,6 +472,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -489,8 +494,25 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -522,12 +544,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -556,24 +585,64 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,19 +650,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -677,7 +742,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -690,7 +755,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="71.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,592 +771,616 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="2" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="D12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="D13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="5" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="C14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="D14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="5" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="D15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="2" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="B19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="B21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="B23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="2" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="B24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="2" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="B26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="B28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="B30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+      <c r="B31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="B32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="5" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="B33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="5" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="18" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/info/info.xlsx
+++ b/info/info.xlsx
@@ -735,14 +735,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1103,10 +1103,10 @@
       <c r="B20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="6" t="n">
@@ -1123,10 +1123,10 @@
       <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="6" t="n">
@@ -1150,13 +1150,13 @@
       <c r="B23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="8" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -1170,13 +1170,13 @@
       <c r="B24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="5" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -1190,10 +1190,10 @@
       <c r="B25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E25" s="6" t="n">
